--- a/backup_radicados.xlsx
+++ b/backup_radicados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,16 +493,6 @@
           <t>OBSERVACION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 11</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 12</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -542,10 +532,6 @@
         <v>241</v>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" s="2" t="n">
-        <v>45768</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -585,8 +571,6 @@
         <v>190</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -617,7 +601,7 @@
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45639</v>
+        <v>45629</v>
       </c>
       <c r="I4" t="n">
         <v>2878985506</v>
@@ -626,8 +610,6 @@
         <v>129</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -658,7 +640,7 @@
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45519</v>
+        <v>45680</v>
       </c>
       <c r="I5" t="n">
         <v>217963248</v>
@@ -667,8 +649,6 @@
         <v>249</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -699,7 +679,7 @@
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45392</v>
+        <v>45731</v>
       </c>
       <c r="I6" t="n">
         <v>2705457542</v>
@@ -708,8 +688,6 @@
         <v>376</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -737,10 +715,8 @@
           <t>2024-15-04</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H7" s="2" t="n">
+        <v>45782</v>
       </c>
       <c r="I7" t="n">
         <v>323641006</v>
@@ -749,8 +725,6 @@
         <v>0</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -781,7 +755,7 @@
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45390</v>
+        <v>45833</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -792,8 +766,6 @@
         <v>378</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -824,7 +796,7 @@
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45392</v>
+        <v>45884</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -835,8 +807,6 @@
         <v>376</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -867,7 +837,7 @@
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45392</v>
+        <v>45935</v>
       </c>
       <c r="I10" t="n">
         <v>890557160</v>
@@ -876,8 +846,6 @@
         <v>376</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -908,7 +876,7 @@
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45392</v>
+        <v>45986</v>
       </c>
       <c r="I11" t="n">
         <v>1232937140</v>
@@ -917,8 +885,6 @@
         <v>376</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -949,7 +915,7 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45392</v>
+        <v>46037</v>
       </c>
       <c r="I12" t="n">
         <v>1444393059</v>
@@ -958,8 +924,6 @@
         <v>376</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -990,7 +954,7 @@
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45392</v>
+        <v>46088</v>
       </c>
       <c r="I13" t="n">
         <v>698272317</v>
@@ -999,8 +963,6 @@
         <v>376</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1031,7 +993,7 @@
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45392</v>
+        <v>46139</v>
       </c>
       <c r="I14" t="n">
         <v>966646590</v>
@@ -1040,8 +1002,6 @@
         <v>376</v>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1073,10 +1033,8 @@
           <t>00-013917</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H15" s="2" t="n">
+        <v>46190</v>
       </c>
       <c r="I15" t="n">
         <v>873033898</v>
@@ -1085,8 +1043,6 @@
         <v>0</v>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1114,10 +1070,8 @@
           <t>00-013918</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H16" s="2" t="n">
+        <v>46241</v>
       </c>
       <c r="I16" t="n">
         <v>112135210</v>
@@ -1126,8 +1080,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1155,10 +1107,8 @@
           <t>00-013925</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H17" s="2" t="n">
+        <v>46292</v>
       </c>
       <c r="I17" t="n">
         <v>320464634</v>
@@ -1167,8 +1117,6 @@
         <v>0</v>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1200,10 +1148,8 @@
           <t>00-013922</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H18" s="2" t="n">
+        <v>46343</v>
       </c>
       <c r="I18" t="n">
         <v>194549644</v>
@@ -1212,8 +1158,6 @@
         <v>0</v>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1244,7 +1188,7 @@
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45392</v>
+        <v>46394</v>
       </c>
       <c r="I19" t="n">
         <v>313289860</v>
@@ -1253,8 +1197,6 @@
         <v>376</v>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1286,10 +1228,8 @@
           <t>00-013943</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H20" s="2" t="n">
+        <v>46445</v>
       </c>
       <c r="I20" t="n">
         <v>480795481</v>
@@ -1298,8 +1238,6 @@
         <v>0</v>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1330,7 +1268,7 @@
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45390</v>
+        <v>46496</v>
       </c>
       <c r="I21" t="n">
         <v>1039020872</v>
@@ -1339,8 +1277,6 @@
         <v>378</v>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1372,10 +1308,8 @@
           <t>N.A. - Correo</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H22" s="2" t="n">
+        <v>46547</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1386,8 +1320,6 @@
         <v>0</v>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1418,7 +1350,7 @@
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45370</v>
+        <v>46598</v>
       </c>
       <c r="I23" t="n">
         <v>6896931411</v>
@@ -1427,8 +1359,6 @@
         <v>398</v>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1459,7 +1389,7 @@
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45206</v>
+        <v>46649</v>
       </c>
       <c r="I24" t="n">
         <v>328733489</v>
@@ -1468,8 +1398,6 @@
         <v>562</v>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1501,10 +1429,8 @@
           <t>(Viabilidad técnica)</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H25" s="2" t="n">
+        <v>46700</v>
       </c>
       <c r="I25" t="n">
         <v>687610988</v>
@@ -1513,8 +1439,6 @@
         <v>0</v>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1546,10 +1470,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H26" s="2" t="n">
+        <v>46751</v>
       </c>
       <c r="I26" t="n">
         <v>207736785</v>
@@ -1558,8 +1480,6 @@
         <v>0</v>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1591,10 +1511,8 @@
           <t>RAD-2024-001.010-GPV</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H27" s="2" t="n">
+        <v>46802</v>
       </c>
       <c r="I27" t="n">
         <v>34379000000</v>
@@ -1603,8 +1521,6 @@
         <v>0</v>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1633,7 +1549,7 @@
         <v>40318</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45590</v>
+        <v>46853</v>
       </c>
       <c r="I28" t="n">
         <v>959401880</v>
@@ -1642,8 +1558,6 @@
         <v>178</v>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1675,10 +1589,8 @@
           <t>MC50071E2024</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H29" s="2" t="n">
+        <v>46904</v>
       </c>
       <c r="I29" t="n">
         <v>25082000000</v>
@@ -1687,8 +1599,6 @@
         <v>0</v>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1716,10 +1626,8 @@
           <t>N.A. - Correo</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H30" s="2" t="n">
+        <v>46955</v>
       </c>
       <c r="I30" t="n">
         <v>291669698</v>
@@ -1728,8 +1636,6 @@
         <v>0</v>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1760,7 +1666,7 @@
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45593</v>
+        <v>47006</v>
       </c>
       <c r="I31" t="n">
         <v>10571000000</v>
@@ -1769,8 +1675,6 @@
         <v>175</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backup_radicados.xlsx
+++ b/backup_radicados.xlsx
@@ -529,7 +529,7 @@
         <v>1056559891</v>
       </c>
       <c r="J2" t="n">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K2" t="inlineStr"/>
     </row>
@@ -568,7 +568,7 @@
         <v>755365910</v>
       </c>
       <c r="J3" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K3" t="inlineStr"/>
     </row>
@@ -607,7 +607,7 @@
         <v>2878985506</v>
       </c>
       <c r="J4" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K4" t="inlineStr"/>
     </row>
@@ -646,7 +646,7 @@
         <v>217963248</v>
       </c>
       <c r="J5" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="K5" t="inlineStr"/>
     </row>
@@ -685,7 +685,7 @@
         <v>2705457542</v>
       </c>
       <c r="J6" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K6" t="inlineStr"/>
     </row>
@@ -722,7 +722,7 @@
         <v>323641006</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7" t="inlineStr"/>
     </row>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K8" t="inlineStr"/>
     </row>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K9" t="inlineStr"/>
     </row>
@@ -843,7 +843,7 @@
         <v>890557160</v>
       </c>
       <c r="J10" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K10" t="inlineStr"/>
     </row>
@@ -882,7 +882,7 @@
         <v>1232937140</v>
       </c>
       <c r="J11" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K11" t="inlineStr"/>
     </row>
@@ -921,7 +921,7 @@
         <v>1444393059</v>
       </c>
       <c r="J12" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K12" t="inlineStr"/>
     </row>
@@ -960,7 +960,7 @@
         <v>698272317</v>
       </c>
       <c r="J13" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K13" t="inlineStr"/>
     </row>
@@ -999,7 +999,7 @@
         <v>966646590</v>
       </c>
       <c r="J14" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K14" t="inlineStr"/>
     </row>
@@ -1040,7 +1040,7 @@
         <v>873033898</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K15" t="inlineStr"/>
     </row>
@@ -1077,7 +1077,7 @@
         <v>112135210</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K16" t="inlineStr"/>
     </row>
@@ -1114,7 +1114,7 @@
         <v>320464634</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K17" t="inlineStr"/>
     </row>
@@ -1155,7 +1155,7 @@
         <v>194549644</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K18" t="inlineStr"/>
     </row>
@@ -1194,7 +1194,7 @@
         <v>313289860</v>
       </c>
       <c r="J19" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K19" t="inlineStr"/>
     </row>
@@ -1235,7 +1235,7 @@
         <v>480795481</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K20" t="inlineStr"/>
     </row>
@@ -1274,7 +1274,7 @@
         <v>1039020872</v>
       </c>
       <c r="J21" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K21" t="inlineStr"/>
     </row>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K22" t="inlineStr"/>
     </row>
@@ -1356,7 +1356,7 @@
         <v>6896931411</v>
       </c>
       <c r="J23" t="n">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="K23" t="inlineStr"/>
     </row>
@@ -1395,7 +1395,7 @@
         <v>328733489</v>
       </c>
       <c r="J24" t="n">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="K24" t="inlineStr"/>
     </row>
@@ -1436,7 +1436,7 @@
         <v>687610988</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K25" t="inlineStr"/>
     </row>
@@ -1477,7 +1477,7 @@
         <v>207736785</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K26" t="inlineStr"/>
     </row>
@@ -1518,7 +1518,7 @@
         <v>34379000000</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27" t="inlineStr"/>
     </row>
@@ -1555,7 +1555,7 @@
         <v>959401880</v>
       </c>
       <c r="J28" t="n">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K28" t="inlineStr"/>
     </row>
@@ -1596,7 +1596,7 @@
         <v>25082000000</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K29" t="inlineStr"/>
     </row>
@@ -1633,7 +1633,7 @@
         <v>291669698</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K30" t="inlineStr"/>
     </row>
@@ -1672,7 +1672,7 @@
         <v>10571000000</v>
       </c>
       <c r="J31" t="n">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K31" t="inlineStr"/>
     </row>

--- a/backup_radicados.xlsx
+++ b/backup_radicados.xlsx
@@ -529,7 +529,7 @@
         <v>1056559891</v>
       </c>
       <c r="J2" t="n">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="K2" t="inlineStr"/>
     </row>
@@ -568,7 +568,7 @@
         <v>755365910</v>
       </c>
       <c r="J3" t="n">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="K3" t="inlineStr"/>
     </row>
@@ -607,7 +607,7 @@
         <v>2878985506</v>
       </c>
       <c r="J4" t="n">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="K4" t="inlineStr"/>
     </row>
@@ -646,7 +646,7 @@
         <v>217963248</v>
       </c>
       <c r="J5" t="n">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="K5" t="inlineStr"/>
     </row>
@@ -685,7 +685,7 @@
         <v>2705457542</v>
       </c>
       <c r="J6" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="K6" t="inlineStr"/>
     </row>
@@ -722,7 +722,7 @@
         <v>323641006</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K7" t="inlineStr"/>
     </row>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="K8" t="inlineStr"/>
     </row>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="K9" t="inlineStr"/>
     </row>
@@ -843,7 +843,7 @@
         <v>890557160</v>
       </c>
       <c r="J10" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="K10" t="inlineStr"/>
     </row>
@@ -882,7 +882,7 @@
         <v>1232937140</v>
       </c>
       <c r="J11" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="K11" t="inlineStr"/>
     </row>
@@ -921,7 +921,7 @@
         <v>1444393059</v>
       </c>
       <c r="J12" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="K12" t="inlineStr"/>
     </row>
@@ -960,7 +960,7 @@
         <v>698272317</v>
       </c>
       <c r="J13" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="K13" t="inlineStr"/>
     </row>
@@ -999,7 +999,7 @@
         <v>966646590</v>
       </c>
       <c r="J14" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="K14" t="inlineStr"/>
     </row>
@@ -1040,7 +1040,7 @@
         <v>873033898</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K15" t="inlineStr"/>
     </row>
@@ -1077,7 +1077,7 @@
         <v>112135210</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K16" t="inlineStr"/>
     </row>
@@ -1114,7 +1114,7 @@
         <v>320464634</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K17" t="inlineStr"/>
     </row>
@@ -1155,7 +1155,7 @@
         <v>194549644</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K18" t="inlineStr"/>
     </row>
@@ -1194,7 +1194,7 @@
         <v>313289860</v>
       </c>
       <c r="J19" t="n">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="K19" t="inlineStr"/>
     </row>
@@ -1235,7 +1235,7 @@
         <v>480795481</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K20" t="inlineStr"/>
     </row>
@@ -1274,7 +1274,7 @@
         <v>1039020872</v>
       </c>
       <c r="J21" t="n">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="K21" t="inlineStr"/>
     </row>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K22" t="inlineStr"/>
     </row>
@@ -1356,7 +1356,7 @@
         <v>6896931411</v>
       </c>
       <c r="J23" t="n">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="K23" t="inlineStr"/>
     </row>
@@ -1395,7 +1395,7 @@
         <v>328733489</v>
       </c>
       <c r="J24" t="n">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="K24" t="inlineStr"/>
     </row>
@@ -1436,7 +1436,7 @@
         <v>687610988</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K25" t="inlineStr"/>
     </row>
@@ -1477,7 +1477,7 @@
         <v>207736785</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K26" t="inlineStr"/>
     </row>
@@ -1518,7 +1518,7 @@
         <v>34379000000</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K27" t="inlineStr"/>
     </row>
@@ -1555,7 +1555,7 @@
         <v>959401880</v>
       </c>
       <c r="J28" t="n">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="K28" t="inlineStr"/>
     </row>
@@ -1596,7 +1596,7 @@
         <v>25082000000</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K29" t="inlineStr"/>
     </row>
@@ -1633,7 +1633,7 @@
         <v>291669698</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K30" t="inlineStr"/>
     </row>
@@ -1672,7 +1672,7 @@
         <v>10571000000</v>
       </c>
       <c r="J31" t="n">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="K31" t="inlineStr"/>
     </row>

--- a/backup_radicados.xlsx
+++ b/backup_radicados.xlsx
@@ -529,7 +529,7 @@
         <v>1056559891</v>
       </c>
       <c r="J2" t="n">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="K2" t="inlineStr"/>
     </row>
@@ -568,7 +568,7 @@
         <v>755365910</v>
       </c>
       <c r="J3" t="n">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="K3" t="inlineStr"/>
     </row>
@@ -607,7 +607,7 @@
         <v>2878985506</v>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="K4" t="inlineStr"/>
     </row>
@@ -646,7 +646,7 @@
         <v>217963248</v>
       </c>
       <c r="J5" t="n">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="K5" t="inlineStr"/>
     </row>
@@ -685,7 +685,7 @@
         <v>2705457542</v>
       </c>
       <c r="J6" t="n">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="K6" t="inlineStr"/>
     </row>
@@ -722,7 +722,7 @@
         <v>323641006</v>
       </c>
       <c r="J7" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K7" t="inlineStr"/>
     </row>
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="K8" t="inlineStr"/>
     </row>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="K9" t="inlineStr"/>
     </row>
@@ -843,7 +843,7 @@
         <v>890557160</v>
       </c>
       <c r="J10" t="n">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="K10" t="inlineStr"/>
     </row>
@@ -882,7 +882,7 @@
         <v>1232937140</v>
       </c>
       <c r="J11" t="n">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="K11" t="inlineStr"/>
     </row>
@@ -921,7 +921,7 @@
         <v>1444393059</v>
       </c>
       <c r="J12" t="n">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="K12" t="inlineStr"/>
     </row>
@@ -960,7 +960,7 @@
         <v>698272317</v>
       </c>
       <c r="J13" t="n">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="K13" t="inlineStr"/>
     </row>
@@ -999,7 +999,7 @@
         <v>966646590</v>
       </c>
       <c r="J14" t="n">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="K14" t="inlineStr"/>
     </row>
@@ -1040,7 +1040,7 @@
         <v>873033898</v>
       </c>
       <c r="J15" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K15" t="inlineStr"/>
     </row>
@@ -1077,7 +1077,7 @@
         <v>112135210</v>
       </c>
       <c r="J16" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K16" t="inlineStr"/>
     </row>
@@ -1114,7 +1114,7 @@
         <v>320464634</v>
       </c>
       <c r="J17" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K17" t="inlineStr"/>
     </row>
@@ -1155,7 +1155,7 @@
         <v>194549644</v>
       </c>
       <c r="J18" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K18" t="inlineStr"/>
     </row>
@@ -1194,7 +1194,7 @@
         <v>313289860</v>
       </c>
       <c r="J19" t="n">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="K19" t="inlineStr"/>
     </row>
@@ -1235,7 +1235,7 @@
         <v>480795481</v>
       </c>
       <c r="J20" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K20" t="inlineStr"/>
     </row>
@@ -1274,7 +1274,7 @@
         <v>1039020872</v>
       </c>
       <c r="J21" t="n">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="K21" t="inlineStr"/>
     </row>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K22" t="inlineStr"/>
     </row>
@@ -1356,7 +1356,7 @@
         <v>6896931411</v>
       </c>
       <c r="J23" t="n">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="K23" t="inlineStr"/>
     </row>
@@ -1395,7 +1395,7 @@
         <v>328733489</v>
       </c>
       <c r="J24" t="n">
-        <v>593</v>
+        <v>645</v>
       </c>
       <c r="K24" t="inlineStr"/>
     </row>
@@ -1436,7 +1436,7 @@
         <v>687610988</v>
       </c>
       <c r="J25" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K25" t="inlineStr"/>
     </row>
@@ -1477,7 +1477,7 @@
         <v>207736785</v>
       </c>
       <c r="J26" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K26" t="inlineStr"/>
     </row>
@@ -1518,7 +1518,7 @@
         <v>34379000000</v>
       </c>
       <c r="J27" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K27" t="inlineStr"/>
     </row>
@@ -1555,7 +1555,7 @@
         <v>959401880</v>
       </c>
       <c r="J28" t="n">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="K28" t="inlineStr"/>
     </row>
@@ -1596,7 +1596,7 @@
         <v>25082000000</v>
       </c>
       <c r="J29" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K29" t="inlineStr"/>
     </row>
@@ -1633,7 +1633,7 @@
         <v>291669698</v>
       </c>
       <c r="J30" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K30" t="inlineStr"/>
     </row>
@@ -1672,7 +1672,7 @@
         <v>10571000000</v>
       </c>
       <c r="J31" t="n">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="K31" t="inlineStr"/>
     </row>
